--- a/Data/FairCarboN_Datas_Contacts.xlsx
+++ b/Data/FairCarboN_Datas_Contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4548E4-D901-42B6-BE57-7B1FF5677417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F12FD-F4D6-4F73-B9D5-4040309516BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Liste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$L$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$Q$421</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="1827">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -5496,6 +5496,42 @@
   </si>
   <si>
     <t>projet</t>
+  </si>
+  <si>
+    <t>ASSIS_INGE</t>
+  </si>
+  <si>
+    <t>Recensement</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Type_Donnees</t>
+  </si>
+  <si>
+    <t>Physiologie de la photosynthèse</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Moyens_prod</t>
+  </si>
+  <si>
+    <t>Attributs</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>INSTRUMENTATION_CAPTEURS</t>
+  </si>
+  <si>
+    <t>Assimilation CO2/Rendement fluorescence chlorophylle, PSII/abs 700, PSI/abs 515, potentiel membrane/rapport CN feuille/marquage 13C/marquage 15N</t>
   </si>
 </sst>
 </file>
@@ -5730,7 +5766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5753,13 +5789,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5907,6 +5956,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6233,12 +6288,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L421"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="S164" sqref="S164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6254,11 +6310,16 @@
     <col min="10" max="10" width="12" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.90625" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="15"/>
+    <col min="13" max="13" width="17.36328125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="15" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="68.7265625" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="44" t="s">
@@ -6294,8 +6355,23 @@
       <c r="L1" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="M1" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>1821</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>1822</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -6330,8 +6406,13 @@
       <c r="L2" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -6366,8 +6447,13 @@
       <c r="L3" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -6402,8 +6488,13 @@
       <c r="L4" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" s="10" customFormat="1" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -6438,8 +6529,13 @@
       <c r="L5" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -6474,8 +6570,13 @@
       <c r="L6" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -6510,8 +6611,13 @@
       <c r="L7" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -6546,8 +6652,13 @@
       <c r="L8" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -6582,8 +6693,13 @@
       <c r="L9" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" s="10" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -6618,8 +6734,13 @@
       <c r="L10" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -6654,8 +6775,13 @@
       <c r="L11" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -6690,8 +6816,13 @@
       <c r="L12" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -6726,8 +6857,13 @@
       <c r="L13" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -6762,8 +6898,13 @@
       <c r="L14" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -6798,8 +6939,13 @@
       <c r="L15" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -6834,8 +6980,13 @@
       <c r="L16" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -6870,8 +7021,13 @@
       <c r="L17" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -6906,8 +7062,13 @@
       <c r="L18" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -6942,8 +7103,13 @@
       <c r="L19" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
@@ -6978,8 +7144,13 @@
       <c r="L20" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -7014,8 +7185,13 @@
       <c r="L21" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -7050,8 +7226,13 @@
       <c r="L22" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -7086,8 +7267,13 @@
       <c r="L23" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -7122,8 +7308,13 @@
       <c r="L24" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -7158,8 +7349,13 @@
       <c r="L25" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -7194,8 +7390,13 @@
       <c r="L26" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -7230,8 +7431,13 @@
       <c r="L27" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
@@ -7266,8 +7472,13 @@
       <c r="L28" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
@@ -7302,8 +7513,13 @@
       <c r="L29" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
@@ -7338,8 +7554,13 @@
       <c r="L30" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
@@ -7374,8 +7595,13 @@
       <c r="L31" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>22</v>
       </c>
@@ -7410,8 +7636,13 @@
       <c r="L32" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>22</v>
       </c>
@@ -7446,8 +7677,13 @@
       <c r="L33" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
@@ -7482,8 +7718,13 @@
       <c r="L34" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" s="10" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>22</v>
       </c>
@@ -7518,8 +7759,13 @@
       <c r="L35" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
@@ -7554,8 +7800,13 @@
       <c r="L36" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
@@ -7590,8 +7841,13 @@
       <c r="L37" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
@@ -7626,8 +7882,13 @@
       <c r="L38" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" s="10" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>22</v>
       </c>
@@ -7662,8 +7923,13 @@
       <c r="L39" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>22</v>
       </c>
@@ -7698,8 +7964,13 @@
       <c r="L40" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>22</v>
       </c>
@@ -7734,8 +8005,13 @@
       <c r="L41" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
@@ -7770,8 +8046,13 @@
       <c r="L42" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>22</v>
       </c>
@@ -7806,8 +8087,13 @@
       <c r="L43" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>22</v>
       </c>
@@ -7842,8 +8128,13 @@
       <c r="L44" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
@@ -7878,8 +8169,13 @@
       <c r="L45" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>22</v>
       </c>
@@ -7914,8 +8210,13 @@
       <c r="L46" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>22</v>
       </c>
@@ -7950,8 +8251,13 @@
       <c r="L47" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>22</v>
       </c>
@@ -7986,8 +8292,13 @@
       <c r="L48" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>22</v>
       </c>
@@ -8022,8 +8333,13 @@
       <c r="L49" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>22</v>
       </c>
@@ -8058,8 +8374,13 @@
       <c r="L50" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>22</v>
       </c>
@@ -8094,8 +8415,13 @@
       <c r="L51" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>22</v>
       </c>
@@ -8130,8 +8456,13 @@
       <c r="L52" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>22</v>
       </c>
@@ -8166,8 +8497,13 @@
       <c r="L53" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>22</v>
       </c>
@@ -8202,8 +8538,13 @@
       <c r="L54" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>22</v>
       </c>
@@ -8238,8 +8579,13 @@
       <c r="L55" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>22</v>
       </c>
@@ -8274,8 +8620,13 @@
       <c r="L56" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>22</v>
       </c>
@@ -8310,8 +8661,13 @@
       <c r="L57" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>22</v>
       </c>
@@ -8346,8 +8702,13 @@
       <c r="L58" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>22</v>
       </c>
@@ -8382,8 +8743,13 @@
       <c r="L59" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>22</v>
       </c>
@@ -8418,8 +8784,13 @@
       <c r="L60" s="6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>22</v>
       </c>
@@ -8454,8 +8825,13 @@
       <c r="L61" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>22</v>
       </c>
@@ -8490,8 +8866,13 @@
       <c r="L62" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>22</v>
       </c>
@@ -8526,8 +8907,13 @@
       <c r="L63" s="6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>22</v>
       </c>
@@ -8562,8 +8948,13 @@
       <c r="L64" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>22</v>
       </c>
@@ -8598,8 +8989,13 @@
       <c r="L65" s="6" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>22</v>
       </c>
@@ -8634,8 +9030,13 @@
       <c r="L66" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="1:17" s="10" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>22</v>
       </c>
@@ -8670,8 +9071,13 @@
       <c r="L67" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>22</v>
       </c>
@@ -8706,8 +9112,13 @@
       <c r="L68" s="6" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>22</v>
       </c>
@@ -8742,8 +9153,13 @@
       <c r="L69" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>22</v>
       </c>
@@ -8778,8 +9194,13 @@
       <c r="L70" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>22</v>
       </c>
@@ -8814,8 +9235,13 @@
       <c r="L71" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>22</v>
       </c>
@@ -8850,8 +9276,13 @@
       <c r="L72" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>22</v>
       </c>
@@ -8886,8 +9317,13 @@
       <c r="L73" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>22</v>
       </c>
@@ -8922,8 +9358,13 @@
       <c r="L74" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>22</v>
       </c>
@@ -8958,8 +9399,13 @@
       <c r="L75" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
@@ -8994,8 +9440,13 @@
       <c r="L76" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>22</v>
       </c>
@@ -9030,8 +9481,13 @@
       <c r="L77" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" s="10" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="1:17" s="10" customFormat="1" ht="27.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>22</v>
       </c>
@@ -9066,8 +9522,13 @@
       <c r="L78" s="6" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>22</v>
       </c>
@@ -9102,8 +9563,13 @@
       <c r="L79" s="28" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
@@ -9138,8 +9604,13 @@
       <c r="L80" s="6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
@@ -9174,8 +9645,13 @@
       <c r="L81" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>22</v>
       </c>
@@ -9210,8 +9686,13 @@
       <c r="L82" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
@@ -9246,8 +9727,13 @@
       <c r="L83" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>22</v>
       </c>
@@ -9282,8 +9768,13 @@
       <c r="L84" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>22</v>
       </c>
@@ -9320,8 +9811,13 @@
       <c r="L85" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>22</v>
       </c>
@@ -9356,8 +9852,13 @@
       <c r="L86" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
@@ -9392,8 +9893,13 @@
       <c r="L87" s="50" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>22</v>
       </c>
@@ -9428,8 +9934,13 @@
       <c r="L88" s="18" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
@@ -9464,8 +9975,13 @@
       <c r="L89" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
@@ -9498,8 +10014,13 @@
       <c r="L90" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>22</v>
       </c>
@@ -9534,8 +10055,13 @@
       <c r="L91" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" s="10" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
@@ -9570,8 +10096,13 @@
       <c r="L92" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
@@ -9606,8 +10137,13 @@
       <c r="L93" s="6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
@@ -9642,8 +10178,13 @@
       <c r="L94" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
@@ -9678,8 +10219,13 @@
       <c r="L95" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
@@ -9714,8 +10260,13 @@
       <c r="L96" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>22</v>
       </c>
@@ -9750,8 +10301,13 @@
       <c r="L97" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>22</v>
       </c>
@@ -9786,8 +10342,13 @@
       <c r="L98" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>22</v>
       </c>
@@ -9822,8 +10383,13 @@
       <c r="L99" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>22</v>
       </c>
@@ -9858,8 +10424,13 @@
       <c r="L100" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>22</v>
       </c>
@@ -9894,8 +10465,13 @@
       <c r="L101" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>22</v>
       </c>
@@ -9930,8 +10506,13 @@
       <c r="L102" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>22</v>
       </c>
@@ -9964,8 +10545,13 @@
       <c r="L103" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>22</v>
       </c>
@@ -10000,8 +10586,13 @@
       <c r="L104" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>22</v>
       </c>
@@ -10036,8 +10627,13 @@
       <c r="L105" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>22</v>
       </c>
@@ -10070,8 +10666,13 @@
       <c r="L106" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>22</v>
       </c>
@@ -10106,8 +10707,13 @@
       <c r="L107" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>22</v>
       </c>
@@ -10142,8 +10748,13 @@
       <c r="L108" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>22</v>
       </c>
@@ -10178,8 +10789,13 @@
       <c r="L109" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>22</v>
       </c>
@@ -10214,8 +10830,13 @@
       <c r="L110" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>22</v>
       </c>
@@ -10248,8 +10869,13 @@
       <c r="L111" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>22</v>
       </c>
@@ -10284,8 +10910,13 @@
       <c r="L112" s="50" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>22</v>
       </c>
@@ -10320,8 +10951,13 @@
       <c r="L113" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>22</v>
       </c>
@@ -10356,8 +10992,13 @@
       <c r="L114" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>22</v>
       </c>
@@ -10392,8 +11033,13 @@
       <c r="L115" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>22</v>
       </c>
@@ -10428,8 +11074,13 @@
       <c r="L116" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>22</v>
       </c>
@@ -10464,8 +11115,13 @@
       <c r="L117" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>22</v>
       </c>
@@ -10500,8 +11156,13 @@
       <c r="L118" s="50" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>22</v>
       </c>
@@ -10536,8 +11197,13 @@
       <c r="L119" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>22</v>
       </c>
@@ -10572,8 +11238,13 @@
       <c r="L120" s="50" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>22</v>
       </c>
@@ -10610,8 +11281,13 @@
       <c r="L121" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>22</v>
       </c>
@@ -10648,8 +11324,13 @@
       <c r="L122" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>22</v>
       </c>
@@ -10686,8 +11367,13 @@
       <c r="L123" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>22</v>
       </c>
@@ -10724,8 +11410,13 @@
       <c r="L124" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>22</v>
       </c>
@@ -10762,8 +11453,13 @@
       <c r="L125" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+    </row>
+    <row r="126" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>22</v>
       </c>
@@ -10800,8 +11496,13 @@
       <c r="L126" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>22</v>
       </c>
@@ -10838,8 +11539,13 @@
       <c r="L127" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+    </row>
+    <row r="128" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>22</v>
       </c>
@@ -10876,8 +11582,13 @@
       <c r="L128" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>22</v>
       </c>
@@ -10914,8 +11625,13 @@
       <c r="L129" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>22</v>
       </c>
@@ -10952,8 +11668,13 @@
       <c r="L130" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>22</v>
       </c>
@@ -10990,8 +11711,13 @@
       <c r="L131" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>22</v>
       </c>
@@ -11028,8 +11754,13 @@
       <c r="L132" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>22</v>
       </c>
@@ -11066,8 +11797,13 @@
       <c r="L133" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>22</v>
       </c>
@@ -11104,8 +11840,13 @@
       <c r="L134" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>22</v>
       </c>
@@ -11142,8 +11883,13 @@
       <c r="L135" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+    </row>
+    <row r="136" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>22</v>
       </c>
@@ -11180,8 +11926,13 @@
       <c r="L136" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>22</v>
       </c>
@@ -11218,8 +11969,13 @@
       <c r="L137" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>22</v>
       </c>
@@ -11254,8 +12010,13 @@
       <c r="L138" s="50" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>22</v>
       </c>
@@ -11290,8 +12051,13 @@
       <c r="L139" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>22</v>
       </c>
@@ -11326,8 +12092,13 @@
       <c r="L140" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+    </row>
+    <row r="141" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>22</v>
       </c>
@@ -11364,8 +12135,13 @@
       <c r="L141" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+    </row>
+    <row r="142" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>22</v>
       </c>
@@ -11400,8 +12176,13 @@
       <c r="L142" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>22</v>
       </c>
@@ -11438,8 +12219,13 @@
       <c r="L143" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>22</v>
       </c>
@@ -11476,8 +12262,13 @@
       <c r="L144" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>22</v>
       </c>
@@ -11512,8 +12303,13 @@
       <c r="L145" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>22</v>
       </c>
@@ -11548,8 +12344,13 @@
       <c r="L146" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>22</v>
       </c>
@@ -11586,8 +12387,13 @@
       <c r="L147" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+    </row>
+    <row r="148" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>22</v>
       </c>
@@ -11624,8 +12430,13 @@
       <c r="L148" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+    </row>
+    <row r="149" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>22</v>
       </c>
@@ -11660,8 +12471,13 @@
       <c r="L149" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+    </row>
+    <row r="150" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>22</v>
       </c>
@@ -11696,8 +12512,13 @@
       <c r="L150" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+    </row>
+    <row r="151" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>22</v>
       </c>
@@ -11732,8 +12553,13 @@
       <c r="L151" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+    </row>
+    <row r="152" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>22</v>
       </c>
@@ -11768,8 +12594,13 @@
       <c r="L152" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+    </row>
+    <row r="153" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>22</v>
       </c>
@@ -11806,8 +12637,13 @@
       <c r="L153" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+    </row>
+    <row r="154" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>22</v>
       </c>
@@ -11844,8 +12680,13 @@
       <c r="L154" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>22</v>
       </c>
@@ -11882,8 +12723,13 @@
       <c r="L155" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>22</v>
       </c>
@@ -11918,8 +12764,13 @@
       <c r="L156" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>22</v>
       </c>
@@ -11954,8 +12805,13 @@
       <c r="L157" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>22</v>
       </c>
@@ -11992,8 +12848,13 @@
       <c r="L158" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>22</v>
       </c>
@@ -12028,8 +12889,13 @@
       <c r="L159" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+    </row>
+    <row r="160" spans="1:17" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>22</v>
       </c>
@@ -12066,8 +12932,23 @@
       <c r="L160" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M160" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>1824</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q160" s="6" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>22</v>
       </c>
@@ -12104,8 +12985,15 @@
       <c r="L161" s="6" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M161" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+    </row>
+    <row r="162" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>22</v>
       </c>
@@ -12124,7 +13012,9 @@
       <c r="F162" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="G162" s="6"/>
+      <c r="G162" s="6" t="s">
+        <v>932</v>
+      </c>
       <c r="H162" s="29" t="s">
         <v>1057</v>
       </c>
@@ -12140,8 +13030,15 @@
       <c r="L162" s="6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M162" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+    </row>
+    <row r="163" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>22</v>
       </c>
@@ -12160,7 +13057,9 @@
       <c r="F163" s="16" t="s">
         <v>1049</v>
       </c>
-      <c r="G163" s="6"/>
+      <c r="G163" s="6" t="s">
+        <v>932</v>
+      </c>
       <c r="H163" s="29" t="s">
         <v>1057</v>
       </c>
@@ -12176,8 +13075,15 @@
       <c r="L163" s="6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M163" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+    </row>
+    <row r="164" spans="1:17" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>22</v>
       </c>
@@ -12197,7 +13103,7 @@
         <v>938</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>1071</v>
+        <v>932</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>203</v>
@@ -12214,8 +13120,15 @@
       <c r="L164" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M164" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+    </row>
+    <row r="165" spans="1:17" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>22</v>
       </c>
@@ -12252,8 +13165,15 @@
       <c r="L165" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M165" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166" spans="1:17" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>22</v>
       </c>
@@ -12272,7 +13192,9 @@
       <c r="F166" s="16" t="s">
         <v>1058</v>
       </c>
-      <c r="G166" s="6"/>
+      <c r="G166" s="6" t="s">
+        <v>1815</v>
+      </c>
       <c r="H166" s="50" t="s">
         <v>1760</v>
       </c>
@@ -12288,8 +13210,15 @@
       <c r="L166" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M166" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167" spans="1:17" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>22</v>
       </c>
@@ -12326,8 +13255,15 @@
       <c r="L167" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M167" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" spans="1:17" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>22</v>
       </c>
@@ -12364,8 +13300,15 @@
       <c r="L168" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M168" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" spans="1:17" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>22</v>
       </c>
@@ -12402,8 +13345,15 @@
       <c r="L169" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M169" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" spans="1:17" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>22</v>
       </c>
@@ -12440,8 +13390,15 @@
       <c r="L170" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M170" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171" spans="1:17" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>22</v>
       </c>
@@ -12476,8 +13433,15 @@
       <c r="L171" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M171" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>22</v>
       </c>
@@ -12512,8 +13476,15 @@
       <c r="L172" s="6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M172" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+    </row>
+    <row r="173" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>22</v>
       </c>
@@ -12548,8 +13519,15 @@
       <c r="L173" s="6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M173" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+    </row>
+    <row r="174" spans="1:17" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>22</v>
       </c>
@@ -12584,8 +13562,15 @@
       <c r="L174" s="6" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M174" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+    </row>
+    <row r="175" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>22</v>
       </c>
@@ -12620,8 +13605,15 @@
       <c r="L175" s="6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M175" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+    </row>
+    <row r="176" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>22</v>
       </c>
@@ -12656,8 +13648,15 @@
       <c r="L176" s="6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M176" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177" spans="1:17" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>22</v>
       </c>
@@ -12694,8 +13693,15 @@
       <c r="L177" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M177" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178" spans="1:17" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>22</v>
       </c>
@@ -12730,8 +13736,15 @@
       <c r="L178" s="6" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M178" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+    </row>
+    <row r="179" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>22</v>
       </c>
@@ -12766,8 +13779,13 @@
       <c r="L179" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+    </row>
+    <row r="180" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>22</v>
       </c>
@@ -12802,8 +13820,13 @@
       <c r="L180" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+    </row>
+    <row r="181" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>22</v>
       </c>
@@ -12838,8 +13861,13 @@
       <c r="L181" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+    </row>
+    <row r="182" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>22</v>
       </c>
@@ -12874,8 +13902,13 @@
       <c r="L182" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+    </row>
+    <row r="183" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>22</v>
       </c>
@@ -12910,8 +13943,13 @@
       <c r="L183" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+    </row>
+    <row r="184" spans="1:17" s="10" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>22</v>
       </c>
@@ -12946,8 +13984,13 @@
       <c r="L184" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+    </row>
+    <row r="185" spans="1:17" s="10" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>22</v>
       </c>
@@ -12982,8 +14025,13 @@
       <c r="L185" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+    </row>
+    <row r="186" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>22</v>
       </c>
@@ -13018,8 +14066,13 @@
       <c r="L186" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" s="10" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+    </row>
+    <row r="187" spans="1:17" s="10" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>22</v>
       </c>
@@ -13054,8 +14107,13 @@
       <c r="L187" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+    </row>
+    <row r="188" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>22</v>
       </c>
@@ -13090,8 +14148,13 @@
       <c r="L188" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+    </row>
+    <row r="189" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>22</v>
       </c>
@@ -13128,8 +14191,13 @@
       <c r="L189" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+    </row>
+    <row r="190" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>22</v>
       </c>
@@ -13164,8 +14232,13 @@
       <c r="L190" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+    </row>
+    <row r="191" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>22</v>
       </c>
@@ -13200,8 +14273,13 @@
       <c r="L191" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+    </row>
+    <row r="192" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>22</v>
       </c>
@@ -13236,8 +14314,13 @@
       <c r="L192" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+    </row>
+    <row r="193" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>22</v>
       </c>
@@ -13272,8 +14355,13 @@
       <c r="L193" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+    </row>
+    <row r="194" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>22</v>
       </c>
@@ -13308,8 +14396,13 @@
       <c r="L194" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+    </row>
+    <row r="195" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>22</v>
       </c>
@@ -13346,8 +14439,13 @@
       <c r="L195" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+    </row>
+    <row r="196" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>22</v>
       </c>
@@ -13382,8 +14480,13 @@
       <c r="L196" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+    </row>
+    <row r="197" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>22</v>
       </c>
@@ -13418,8 +14521,13 @@
       <c r="L197" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+    </row>
+    <row r="198" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>22</v>
       </c>
@@ -13454,8 +14562,13 @@
       <c r="L198" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+    </row>
+    <row r="199" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>22</v>
       </c>
@@ -13492,8 +14605,13 @@
       <c r="L199" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+    </row>
+    <row r="200" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>22</v>
       </c>
@@ -13530,8 +14648,13 @@
       <c r="L200" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+    </row>
+    <row r="201" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>22</v>
       </c>
@@ -13566,8 +14689,13 @@
       <c r="L201" s="6" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+    </row>
+    <row r="202" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>22</v>
       </c>
@@ -13604,8 +14732,13 @@
       <c r="L202" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+    </row>
+    <row r="203" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>22</v>
       </c>
@@ -13640,8 +14773,13 @@
       <c r="L203" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+    </row>
+    <row r="204" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>22</v>
       </c>
@@ -13678,8 +14816,13 @@
       <c r="L204" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+    </row>
+    <row r="205" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>22</v>
       </c>
@@ -13716,8 +14859,13 @@
       <c r="L205" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+    </row>
+    <row r="206" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>22</v>
       </c>
@@ -13752,8 +14900,13 @@
       <c r="L206" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+    </row>
+    <row r="207" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>22</v>
       </c>
@@ -13788,8 +14941,13 @@
       <c r="L207" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+    </row>
+    <row r="208" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>22</v>
       </c>
@@ -13824,8 +14982,13 @@
       <c r="L208" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+    </row>
+    <row r="209" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>22</v>
       </c>
@@ -13860,8 +15023,13 @@
       <c r="L209" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+    </row>
+    <row r="210" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>22</v>
       </c>
@@ -13896,8 +15064,13 @@
       <c r="L210" s="6">
         <v>5.4070900000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+    </row>
+    <row r="211" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>22</v>
       </c>
@@ -13932,8 +15105,13 @@
       <c r="L211" s="6" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+    </row>
+    <row r="212" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>22</v>
       </c>
@@ -13968,8 +15146,13 @@
       <c r="L212" s="6" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+    </row>
+    <row r="213" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>22</v>
       </c>
@@ -14004,8 +15187,13 @@
       <c r="L213" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+    </row>
+    <row r="214" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>22</v>
       </c>
@@ -14040,8 +15228,13 @@
       <c r="L214" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+    </row>
+    <row r="215" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>22</v>
       </c>
@@ -14076,8 +15269,13 @@
       <c r="L215" s="6" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+    </row>
+    <row r="216" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>22</v>
       </c>
@@ -14112,8 +15310,13 @@
       <c r="L216" s="6">
         <v>5.4070900000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+    </row>
+    <row r="217" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>22</v>
       </c>
@@ -14146,8 +15349,13 @@
       <c r="L217" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+    </row>
+    <row r="218" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>22</v>
       </c>
@@ -14180,8 +15388,13 @@
       <c r="L218" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+    </row>
+    <row r="219" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>22</v>
       </c>
@@ -14214,8 +15427,13 @@
       <c r="L219" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+    </row>
+    <row r="220" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>22</v>
       </c>
@@ -14248,8 +15466,13 @@
       <c r="L220" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" s="10" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+    </row>
+    <row r="221" spans="1:17" s="10" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>22</v>
       </c>
@@ -14282,8 +15505,13 @@
       <c r="L221" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" s="10" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222" spans="1:17" s="10" customFormat="1" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>22</v>
       </c>
@@ -14316,8 +15544,13 @@
       <c r="L222" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>22</v>
       </c>
@@ -14350,8 +15583,13 @@
       <c r="L223" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+    </row>
+    <row r="224" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>22</v>
       </c>
@@ -14386,8 +15624,13 @@
       <c r="L224" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+    </row>
+    <row r="225" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>22</v>
       </c>
@@ -14422,8 +15665,13 @@
       <c r="L225" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+    </row>
+    <row r="226" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>22</v>
       </c>
@@ -14458,8 +15706,13 @@
       <c r="L226" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+    </row>
+    <row r="227" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>22</v>
       </c>
@@ -14496,8 +15749,13 @@
       <c r="L227" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+    </row>
+    <row r="228" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>22</v>
       </c>
@@ -14530,8 +15788,13 @@
       <c r="L228" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+    </row>
+    <row r="229" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>22</v>
       </c>
@@ -14566,8 +15829,13 @@
       <c r="L229" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+    </row>
+    <row r="230" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>22</v>
       </c>
@@ -14602,8 +15870,13 @@
       <c r="L230" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+    </row>
+    <row r="231" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>22</v>
       </c>
@@ -14638,8 +15911,13 @@
       <c r="L231" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+    </row>
+    <row r="232" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>22</v>
       </c>
@@ -14672,8 +15950,13 @@
       <c r="L232" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+    </row>
+    <row r="233" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>22</v>
       </c>
@@ -14706,8 +15989,13 @@
       <c r="L233" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+    </row>
+    <row r="234" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>22</v>
       </c>
@@ -14742,8 +16030,13 @@
       <c r="L234" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+    </row>
+    <row r="235" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>22</v>
       </c>
@@ -14778,8 +16071,13 @@
       <c r="L235" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+    </row>
+    <row r="236" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>22</v>
       </c>
@@ -14814,8 +16112,13 @@
       <c r="L236" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+    </row>
+    <row r="237" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>22</v>
       </c>
@@ -14850,8 +16153,13 @@
       <c r="L237" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+    </row>
+    <row r="238" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>22</v>
       </c>
@@ -14884,8 +16192,13 @@
       <c r="L238" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+    </row>
+    <row r="239" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>22</v>
       </c>
@@ -14918,8 +16231,13 @@
       <c r="L239" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+    </row>
+    <row r="240" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>22</v>
       </c>
@@ -14954,8 +16272,13 @@
       <c r="L240" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+    </row>
+    <row r="241" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>22</v>
       </c>
@@ -14990,8 +16313,13 @@
       <c r="L241" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+    </row>
+    <row r="242" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>22</v>
       </c>
@@ -15026,8 +16354,13 @@
       <c r="L242" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+    </row>
+    <row r="243" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>22</v>
       </c>
@@ -15062,8 +16395,13 @@
       <c r="L243" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+    </row>
+    <row r="244" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>22</v>
       </c>
@@ -15098,8 +16436,13 @@
       <c r="L244" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+    </row>
+    <row r="245" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>22</v>
       </c>
@@ -15134,8 +16477,13 @@
       <c r="L245" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>22</v>
       </c>
@@ -15170,8 +16518,13 @@
       <c r="L246" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>22</v>
       </c>
@@ -15206,8 +16559,13 @@
       <c r="L247" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+    </row>
+    <row r="248" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>22</v>
       </c>
@@ -15240,8 +16598,13 @@
       <c r="L248" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="6"/>
+    </row>
+    <row r="249" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>22</v>
       </c>
@@ -15276,8 +16639,13 @@
       <c r="L249" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="6"/>
+    </row>
+    <row r="250" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>22</v>
       </c>
@@ -15312,8 +16680,13 @@
       <c r="L250" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="6"/>
+    </row>
+    <row r="251" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>22</v>
       </c>
@@ -15348,8 +16721,13 @@
       <c r="L251" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6"/>
+    </row>
+    <row r="252" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>22</v>
       </c>
@@ -15384,8 +16762,13 @@
       <c r="L252" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M252" s="6"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+      <c r="Q252" s="6"/>
+    </row>
+    <row r="253" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>22</v>
       </c>
@@ -15420,8 +16803,13 @@
       <c r="L253" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+    </row>
+    <row r="254" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>22</v>
       </c>
@@ -15454,8 +16842,13 @@
       <c r="L254" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="6"/>
+    </row>
+    <row r="255" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>22</v>
       </c>
@@ -15490,8 +16883,13 @@
       <c r="L255" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="6"/>
+    </row>
+    <row r="256" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>22</v>
       </c>
@@ -15524,8 +16922,13 @@
       <c r="L256" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M256" s="6"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+      <c r="Q256" s="6"/>
+    </row>
+    <row r="257" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>22</v>
       </c>
@@ -15558,8 +16961,13 @@
       <c r="L257" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="6"/>
+    </row>
+    <row r="258" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>22</v>
       </c>
@@ -15594,8 +17002,13 @@
       <c r="L258" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="6"/>
+    </row>
+    <row r="259" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>22</v>
       </c>
@@ -15632,8 +17045,13 @@
       <c r="L259" s="20" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+      <c r="Q259" s="6"/>
+    </row>
+    <row r="260" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>22</v>
       </c>
@@ -15668,8 +17086,13 @@
       <c r="L260" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M260" s="6"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="6"/>
+    </row>
+    <row r="261" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>22</v>
       </c>
@@ -15706,8 +17129,13 @@
       <c r="L261" s="20" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M261" s="6"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+      <c r="Q261" s="6"/>
+    </row>
+    <row r="262" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>22</v>
       </c>
@@ -15742,8 +17170,13 @@
       <c r="L262" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M262" s="6"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+      <c r="Q262" s="6"/>
+    </row>
+    <row r="263" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>22</v>
       </c>
@@ -15776,8 +17209,13 @@
       <c r="L263" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M263" s="6"/>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+      <c r="Q263" s="6"/>
+    </row>
+    <row r="264" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>22</v>
       </c>
@@ -15810,8 +17248,13 @@
       <c r="L264" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M264" s="6"/>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+      <c r="Q264" s="6"/>
+    </row>
+    <row r="265" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>22</v>
       </c>
@@ -15844,8 +17287,13 @@
       <c r="L265" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M265" s="6"/>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+      <c r="Q265" s="6"/>
+    </row>
+    <row r="266" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>22</v>
       </c>
@@ -15878,8 +17326,13 @@
       <c r="L266" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+      <c r="Q266" s="6"/>
+    </row>
+    <row r="267" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>22</v>
       </c>
@@ -15912,8 +17365,13 @@
       <c r="L267" s="6" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+      <c r="Q267" s="6"/>
+    </row>
+    <row r="268" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>22</v>
       </c>
@@ -15946,8 +17404,13 @@
       <c r="L268" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="6"/>
+    </row>
+    <row r="269" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>22</v>
       </c>
@@ -15980,8 +17443,13 @@
       <c r="L269" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M269" s="6"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+      <c r="Q269" s="6"/>
+    </row>
+    <row r="270" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>22</v>
       </c>
@@ -16014,8 +17482,13 @@
       <c r="L270" s="6" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+      <c r="Q270" s="6"/>
+    </row>
+    <row r="271" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>22</v>
       </c>
@@ -16048,8 +17521,13 @@
       <c r="L271" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M271" s="6"/>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+      <c r="Q271" s="6"/>
+    </row>
+    <row r="272" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -16082,8 +17560,13 @@
       <c r="L272" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M272" s="6"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="6"/>
+    </row>
+    <row r="273" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>22</v>
       </c>
@@ -16116,8 +17599,13 @@
       <c r="L273" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M273" s="6"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="6"/>
+    </row>
+    <row r="274" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>22</v>
       </c>
@@ -16150,8 +17638,13 @@
       <c r="L274" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="6"/>
+    </row>
+    <row r="275" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>22</v>
       </c>
@@ -16184,8 +17677,13 @@
       <c r="L275" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M275" s="6"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="6"/>
+    </row>
+    <row r="276" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>22</v>
       </c>
@@ -16218,8 +17716,13 @@
       <c r="L276" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M276" s="6"/>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="6"/>
+    </row>
+    <row r="277" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>22</v>
       </c>
@@ -16252,8 +17755,13 @@
       <c r="L277" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M277" s="6"/>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="6"/>
+    </row>
+    <row r="278" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>22</v>
       </c>
@@ -16288,8 +17796,13 @@
       <c r="L278" s="18" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M278" s="6"/>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="6"/>
+    </row>
+    <row r="279" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>22</v>
       </c>
@@ -16324,8 +17837,13 @@
       <c r="L279" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="6"/>
+    </row>
+    <row r="280" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>22</v>
       </c>
@@ -16360,8 +17878,13 @@
       <c r="L280" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M280" s="6"/>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="6"/>
+    </row>
+    <row r="281" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>22</v>
       </c>
@@ -16396,8 +17919,13 @@
       <c r="L281" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M281" s="6"/>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="6"/>
+    </row>
+    <row r="282" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>22</v>
       </c>
@@ -16432,8 +17960,13 @@
       <c r="L282" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M282" s="6"/>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="6"/>
+    </row>
+    <row r="283" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>22</v>
       </c>
@@ -16468,8 +18001,13 @@
       <c r="L283" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M283" s="6"/>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="6"/>
+    </row>
+    <row r="284" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>22</v>
       </c>
@@ -16504,8 +18042,13 @@
       <c r="L284" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M284" s="6"/>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="6"/>
+    </row>
+    <row r="285" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>22</v>
       </c>
@@ -16540,8 +18083,13 @@
       <c r="L285" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M285" s="6"/>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="6"/>
+    </row>
+    <row r="286" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>22</v>
       </c>
@@ -16576,8 +18124,13 @@
       <c r="L286" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M286" s="6"/>
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
+      <c r="Q286" s="6"/>
+    </row>
+    <row r="287" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>22</v>
       </c>
@@ -16612,8 +18165,13 @@
       <c r="L287" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M287" s="6"/>
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
+      <c r="Q287" s="6"/>
+    </row>
+    <row r="288" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>22</v>
       </c>
@@ -16648,8 +18206,13 @@
       <c r="L288" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M288" s="6"/>
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
+      <c r="Q288" s="6"/>
+    </row>
+    <row r="289" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>22</v>
       </c>
@@ -16684,8 +18247,13 @@
       <c r="L289" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M289" s="6"/>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="6"/>
+    </row>
+    <row r="290" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>22</v>
       </c>
@@ -16720,8 +18288,13 @@
       <c r="L290" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M290" s="6"/>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+      <c r="Q290" s="6"/>
+    </row>
+    <row r="291" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>22</v>
       </c>
@@ -16754,8 +18327,13 @@
       <c r="L291" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M291" s="6"/>
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
+      <c r="Q291" s="6"/>
+    </row>
+    <row r="292" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>22</v>
       </c>
@@ -16788,8 +18366,13 @@
       <c r="L292" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M292" s="6"/>
+      <c r="N292" s="6"/>
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
+      <c r="Q292" s="6"/>
+    </row>
+    <row r="293" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>22</v>
       </c>
@@ -16822,8 +18405,13 @@
       <c r="L293" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M293" s="6"/>
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
+      <c r="Q293" s="6"/>
+    </row>
+    <row r="294" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>22</v>
       </c>
@@ -16856,8 +18444,13 @@
       <c r="L294" s="6" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M294" s="6"/>
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
+      <c r="Q294" s="6"/>
+    </row>
+    <row r="295" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>22</v>
       </c>
@@ -16890,8 +18483,13 @@
       <c r="L295" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M295" s="6"/>
+      <c r="N295" s="6"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="6"/>
+      <c r="Q295" s="6"/>
+    </row>
+    <row r="296" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>22</v>
       </c>
@@ -16924,8 +18522,13 @@
       <c r="L296" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M296" s="6"/>
+      <c r="N296" s="6"/>
+      <c r="O296" s="6"/>
+      <c r="P296" s="6"/>
+      <c r="Q296" s="6"/>
+    </row>
+    <row r="297" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>22</v>
       </c>
@@ -16958,8 +18561,13 @@
       <c r="L297" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M297" s="6"/>
+      <c r="N297" s="6"/>
+      <c r="O297" s="6"/>
+      <c r="P297" s="6"/>
+      <c r="Q297" s="6"/>
+    </row>
+    <row r="298" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>22</v>
       </c>
@@ -16992,8 +18600,13 @@
       <c r="L298" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M298" s="6"/>
+      <c r="N298" s="6"/>
+      <c r="O298" s="6"/>
+      <c r="P298" s="6"/>
+      <c r="Q298" s="6"/>
+    </row>
+    <row r="299" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>22</v>
       </c>
@@ -17026,8 +18639,13 @@
       <c r="L299" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M299" s="6"/>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+      <c r="Q299" s="6"/>
+    </row>
+    <row r="300" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>22</v>
       </c>
@@ -17060,8 +18678,13 @@
       <c r="L300" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M300" s="6"/>
+      <c r="N300" s="6"/>
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
+      <c r="Q300" s="6"/>
+    </row>
+    <row r="301" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>22</v>
       </c>
@@ -17094,8 +18717,13 @@
       <c r="L301" s="6" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M301" s="6"/>
+      <c r="N301" s="6"/>
+      <c r="O301" s="6"/>
+      <c r="P301" s="6"/>
+      <c r="Q301" s="6"/>
+    </row>
+    <row r="302" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>22</v>
       </c>
@@ -17128,8 +18756,13 @@
       <c r="L302" s="6" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M302" s="6"/>
+      <c r="N302" s="6"/>
+      <c r="O302" s="6"/>
+      <c r="P302" s="6"/>
+      <c r="Q302" s="6"/>
+    </row>
+    <row r="303" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>22</v>
       </c>
@@ -17162,8 +18795,13 @@
       <c r="L303" s="6" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M303" s="6"/>
+      <c r="N303" s="6"/>
+      <c r="O303" s="6"/>
+      <c r="P303" s="6"/>
+      <c r="Q303" s="6"/>
+    </row>
+    <row r="304" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>22</v>
       </c>
@@ -17196,8 +18834,13 @@
       <c r="L304" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M304" s="6"/>
+      <c r="N304" s="6"/>
+      <c r="O304" s="6"/>
+      <c r="P304" s="6"/>
+      <c r="Q304" s="6"/>
+    </row>
+    <row r="305" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>22</v>
       </c>
@@ -17230,8 +18873,13 @@
       <c r="L305" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M305" s="6"/>
+      <c r="N305" s="6"/>
+      <c r="O305" s="6"/>
+      <c r="P305" s="6"/>
+      <c r="Q305" s="6"/>
+    </row>
+    <row r="306" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>22</v>
       </c>
@@ -17264,8 +18912,13 @@
       <c r="L306" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M306" s="6"/>
+      <c r="N306" s="6"/>
+      <c r="O306" s="6"/>
+      <c r="P306" s="6"/>
+      <c r="Q306" s="6"/>
+    </row>
+    <row r="307" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>22</v>
       </c>
@@ -17298,8 +18951,13 @@
       <c r="L307" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M307" s="6"/>
+      <c r="N307" s="6"/>
+      <c r="O307" s="6"/>
+      <c r="P307" s="6"/>
+      <c r="Q307" s="6"/>
+    </row>
+    <row r="308" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>22</v>
       </c>
@@ -17332,8 +18990,13 @@
       <c r="L308" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M308" s="6"/>
+      <c r="N308" s="6"/>
+      <c r="O308" s="6"/>
+      <c r="P308" s="6"/>
+      <c r="Q308" s="6"/>
+    </row>
+    <row r="309" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>22</v>
       </c>
@@ -17368,8 +19031,13 @@
       <c r="L309" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M309" s="6"/>
+      <c r="N309" s="6"/>
+      <c r="O309" s="6"/>
+      <c r="P309" s="6"/>
+      <c r="Q309" s="6"/>
+    </row>
+    <row r="310" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>22</v>
       </c>
@@ -17402,8 +19070,13 @@
       <c r="L310" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M310" s="6"/>
+      <c r="N310" s="6"/>
+      <c r="O310" s="6"/>
+      <c r="P310" s="6"/>
+      <c r="Q310" s="6"/>
+    </row>
+    <row r="311" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>22</v>
       </c>
@@ -17436,8 +19109,13 @@
       <c r="L311" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" s="10" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M311" s="6"/>
+      <c r="N311" s="6"/>
+      <c r="O311" s="6"/>
+      <c r="P311" s="6"/>
+      <c r="Q311" s="6"/>
+    </row>
+    <row r="312" spans="1:17" s="10" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>22</v>
       </c>
@@ -17470,8 +19148,13 @@
       <c r="L312" s="6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M312" s="6"/>
+      <c r="N312" s="6"/>
+      <c r="O312" s="6"/>
+      <c r="P312" s="6"/>
+      <c r="Q312" s="6"/>
+    </row>
+    <row r="313" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>22</v>
       </c>
@@ -17504,8 +19187,13 @@
       <c r="L313" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M313" s="6"/>
+      <c r="N313" s="6"/>
+      <c r="O313" s="6"/>
+      <c r="P313" s="6"/>
+      <c r="Q313" s="6"/>
+    </row>
+    <row r="314" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>22</v>
       </c>
@@ -17538,8 +19226,13 @@
       <c r="L314" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M314" s="6"/>
+      <c r="N314" s="6"/>
+      <c r="O314" s="6"/>
+      <c r="P314" s="6"/>
+      <c r="Q314" s="6"/>
+    </row>
+    <row r="315" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>22</v>
       </c>
@@ -17572,8 +19265,13 @@
       <c r="L315" s="6" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M315" s="6"/>
+      <c r="N315" s="6"/>
+      <c r="O315" s="6"/>
+      <c r="P315" s="6"/>
+      <c r="Q315" s="6"/>
+    </row>
+    <row r="316" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>22</v>
       </c>
@@ -17606,8 +19304,13 @@
       <c r="L316" s="6" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M316" s="6"/>
+      <c r="N316" s="6"/>
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
+      <c r="Q316" s="6"/>
+    </row>
+    <row r="317" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>22</v>
       </c>
@@ -17640,8 +19343,13 @@
       <c r="L317" s="6" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M317" s="6"/>
+      <c r="N317" s="6"/>
+      <c r="O317" s="6"/>
+      <c r="P317" s="6"/>
+      <c r="Q317" s="6"/>
+    </row>
+    <row r="318" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>22</v>
       </c>
@@ -17674,8 +19382,13 @@
       <c r="L318" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M318" s="6"/>
+      <c r="N318" s="6"/>
+      <c r="O318" s="6"/>
+      <c r="P318" s="6"/>
+      <c r="Q318" s="6"/>
+    </row>
+    <row r="319" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>22</v>
       </c>
@@ -17708,8 +19421,13 @@
       <c r="L319" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M319" s="6"/>
+      <c r="N319" s="6"/>
+      <c r="O319" s="6"/>
+      <c r="P319" s="6"/>
+      <c r="Q319" s="6"/>
+    </row>
+    <row r="320" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>22</v>
       </c>
@@ -17742,8 +19460,13 @@
       <c r="L320" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M320" s="6"/>
+      <c r="N320" s="6"/>
+      <c r="O320" s="6"/>
+      <c r="P320" s="6"/>
+      <c r="Q320" s="6"/>
+    </row>
+    <row r="321" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>22</v>
       </c>
@@ -17780,8 +19503,13 @@
       <c r="L321" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="M321" s="6"/>
+      <c r="N321" s="6"/>
+      <c r="O321" s="6"/>
+      <c r="P321" s="6"/>
+      <c r="Q321" s="6"/>
+    </row>
+    <row r="322" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>22</v>
       </c>
@@ -17816,8 +19544,13 @@
       <c r="L322" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="M322" s="6"/>
+      <c r="N322" s="6"/>
+      <c r="O322" s="6"/>
+      <c r="P322" s="6"/>
+      <c r="Q322" s="6"/>
+    </row>
+    <row r="323" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>22</v>
       </c>
@@ -17852,8 +19585,13 @@
       <c r="L323" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="M323" s="6"/>
+      <c r="N323" s="6"/>
+      <c r="O323" s="6"/>
+      <c r="P323" s="6"/>
+      <c r="Q323" s="6"/>
+    </row>
+    <row r="324" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>22</v>
       </c>
@@ -17888,8 +19626,13 @@
       <c r="L324" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="M324" s="6"/>
+      <c r="N324" s="6"/>
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
+      <c r="Q324" s="6"/>
+    </row>
+    <row r="325" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>22</v>
       </c>
@@ -17922,8 +19665,13 @@
       <c r="L325" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M325" s="6"/>
+      <c r="N325" s="6"/>
+      <c r="O325" s="6"/>
+      <c r="P325" s="6"/>
+      <c r="Q325" s="6"/>
+    </row>
+    <row r="326" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>22</v>
       </c>
@@ -17956,8 +19704,13 @@
       <c r="L326" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M326" s="6"/>
+      <c r="N326" s="6"/>
+      <c r="O326" s="6"/>
+      <c r="P326" s="6"/>
+      <c r="Q326" s="6"/>
+    </row>
+    <row r="327" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>22</v>
       </c>
@@ -17990,8 +19743,13 @@
       <c r="L327" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M327" s="6"/>
+      <c r="N327" s="6"/>
+      <c r="O327" s="6"/>
+      <c r="P327" s="6"/>
+      <c r="Q327" s="6"/>
+    </row>
+    <row r="328" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>22</v>
       </c>
@@ -18026,8 +19784,13 @@
       <c r="L328" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M328" s="6"/>
+      <c r="N328" s="6"/>
+      <c r="O328" s="6"/>
+      <c r="P328" s="6"/>
+      <c r="Q328" s="6"/>
+    </row>
+    <row r="329" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>22</v>
       </c>
@@ -18062,8 +19825,13 @@
       <c r="L329" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M329" s="6"/>
+      <c r="N329" s="6"/>
+      <c r="O329" s="6"/>
+      <c r="P329" s="6"/>
+      <c r="Q329" s="6"/>
+    </row>
+    <row r="330" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>22</v>
       </c>
@@ -18096,8 +19864,13 @@
       <c r="L330" s="6" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M330" s="6"/>
+      <c r="N330" s="6"/>
+      <c r="O330" s="6"/>
+      <c r="P330" s="6"/>
+      <c r="Q330" s="6"/>
+    </row>
+    <row r="331" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>22</v>
       </c>
@@ -18132,8 +19905,13 @@
       <c r="L331" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M331" s="6"/>
+      <c r="N331" s="6"/>
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
+      <c r="Q331" s="6"/>
+    </row>
+    <row r="332" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>22</v>
       </c>
@@ -18168,8 +19946,13 @@
       <c r="L332" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M332" s="6"/>
+      <c r="N332" s="6"/>
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
+      <c r="Q332" s="6"/>
+    </row>
+    <row r="333" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>22</v>
       </c>
@@ -18204,8 +19987,13 @@
       <c r="L333" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M333" s="6"/>
+      <c r="N333" s="6"/>
+      <c r="O333" s="6"/>
+      <c r="P333" s="6"/>
+      <c r="Q333" s="6"/>
+    </row>
+    <row r="334" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>22</v>
       </c>
@@ -18240,8 +20028,13 @@
       <c r="L334" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M334" s="6"/>
+      <c r="N334" s="6"/>
+      <c r="O334" s="6"/>
+      <c r="P334" s="6"/>
+      <c r="Q334" s="6"/>
+    </row>
+    <row r="335" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>22</v>
       </c>
@@ -18276,8 +20069,13 @@
       <c r="L335" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M335" s="6"/>
+      <c r="N335" s="6"/>
+      <c r="O335" s="6"/>
+      <c r="P335" s="6"/>
+      <c r="Q335" s="6"/>
+    </row>
+    <row r="336" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>22</v>
       </c>
@@ -18310,8 +20108,13 @@
       <c r="L336" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="M336" s="6"/>
+      <c r="N336" s="6"/>
+      <c r="O336" s="6"/>
+      <c r="P336" s="6"/>
+      <c r="Q336" s="6"/>
+    </row>
+    <row r="337" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>22</v>
       </c>
@@ -18344,8 +20147,13 @@
       <c r="L337" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M337" s="6"/>
+      <c r="N337" s="6"/>
+      <c r="O337" s="6"/>
+      <c r="P337" s="6"/>
+      <c r="Q337" s="6"/>
+    </row>
+    <row r="338" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>22</v>
       </c>
@@ -18378,8 +20186,13 @@
       <c r="L338" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M338" s="6"/>
+      <c r="N338" s="6"/>
+      <c r="O338" s="6"/>
+      <c r="P338" s="6"/>
+      <c r="Q338" s="6"/>
+    </row>
+    <row r="339" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>22</v>
       </c>
@@ -18412,8 +20225,13 @@
       <c r="L339" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M339" s="6"/>
+      <c r="N339" s="6"/>
+      <c r="O339" s="6"/>
+      <c r="P339" s="6"/>
+      <c r="Q339" s="6"/>
+    </row>
+    <row r="340" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6" t="s">
         <v>22</v>
       </c>
@@ -18448,8 +20266,13 @@
       <c r="L340" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="M340" s="6"/>
+      <c r="N340" s="6"/>
+      <c r="O340" s="6"/>
+      <c r="P340" s="6"/>
+      <c r="Q340" s="6"/>
+    </row>
+    <row r="341" spans="1:17" s="10" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>22</v>
       </c>
@@ -18484,8 +20307,13 @@
       <c r="L341" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M341" s="6"/>
+      <c r="N341" s="6"/>
+      <c r="O341" s="6"/>
+      <c r="P341" s="6"/>
+      <c r="Q341" s="6"/>
+    </row>
+    <row r="342" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>22</v>
       </c>
@@ -18520,8 +20348,13 @@
       <c r="L342" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M342" s="6"/>
+      <c r="N342" s="6"/>
+      <c r="O342" s="6"/>
+      <c r="P342" s="6"/>
+      <c r="Q342" s="6"/>
+    </row>
+    <row r="343" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>22</v>
       </c>
@@ -18556,8 +20389,13 @@
       <c r="L343" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M343" s="6"/>
+      <c r="N343" s="6"/>
+      <c r="O343" s="6"/>
+      <c r="P343" s="6"/>
+      <c r="Q343" s="6"/>
+    </row>
+    <row r="344" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>22</v>
       </c>
@@ -18592,8 +20430,13 @@
       <c r="L344" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M344" s="6"/>
+      <c r="N344" s="6"/>
+      <c r="O344" s="6"/>
+      <c r="P344" s="6"/>
+      <c r="Q344" s="6"/>
+    </row>
+    <row r="345" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>22</v>
       </c>
@@ -18628,8 +20471,13 @@
       <c r="L345" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M345" s="6"/>
+      <c r="N345" s="6"/>
+      <c r="O345" s="6"/>
+      <c r="P345" s="6"/>
+      <c r="Q345" s="6"/>
+    </row>
+    <row r="346" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>22</v>
       </c>
@@ -18662,8 +20510,13 @@
       <c r="L346" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M346" s="6"/>
+      <c r="N346" s="6"/>
+      <c r="O346" s="6"/>
+      <c r="P346" s="6"/>
+      <c r="Q346" s="6"/>
+    </row>
+    <row r="347" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>22</v>
       </c>
@@ -18696,8 +20549,13 @@
       <c r="L347" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M347" s="6"/>
+      <c r="N347" s="6"/>
+      <c r="O347" s="6"/>
+      <c r="P347" s="6"/>
+      <c r="Q347" s="6"/>
+    </row>
+    <row r="348" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>22</v>
       </c>
@@ -18730,8 +20588,13 @@
       <c r="L348" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M348" s="6"/>
+      <c r="N348" s="6"/>
+      <c r="O348" s="6"/>
+      <c r="P348" s="6"/>
+      <c r="Q348" s="6"/>
+    </row>
+    <row r="349" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>22</v>
       </c>
@@ -18764,8 +20627,13 @@
       <c r="L349" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M349" s="6"/>
+      <c r="N349" s="6"/>
+      <c r="O349" s="6"/>
+      <c r="P349" s="6"/>
+      <c r="Q349" s="6"/>
+    </row>
+    <row r="350" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>22</v>
       </c>
@@ -18798,8 +20666,13 @@
       <c r="L350" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M350" s="6"/>
+      <c r="N350" s="6"/>
+      <c r="O350" s="6"/>
+      <c r="P350" s="6"/>
+      <c r="Q350" s="6"/>
+    </row>
+    <row r="351" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>22</v>
       </c>
@@ -18832,8 +20705,13 @@
       <c r="L351" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M351" s="6"/>
+      <c r="N351" s="6"/>
+      <c r="O351" s="6"/>
+      <c r="P351" s="6"/>
+      <c r="Q351" s="6"/>
+    </row>
+    <row r="352" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>22</v>
       </c>
@@ -18866,8 +20744,13 @@
       <c r="L352" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M352" s="6"/>
+      <c r="N352" s="6"/>
+      <c r="O352" s="6"/>
+      <c r="P352" s="6"/>
+      <c r="Q352" s="6"/>
+    </row>
+    <row r="353" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>22</v>
       </c>
@@ -18902,8 +20785,13 @@
       <c r="L353" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M353" s="6"/>
+      <c r="N353" s="6"/>
+      <c r="O353" s="6"/>
+      <c r="P353" s="6"/>
+      <c r="Q353" s="6"/>
+    </row>
+    <row r="354" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>22</v>
       </c>
@@ -18936,8 +20824,13 @@
       <c r="L354" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M354" s="6"/>
+      <c r="N354" s="6"/>
+      <c r="O354" s="6"/>
+      <c r="P354" s="6"/>
+      <c r="Q354" s="6"/>
+    </row>
+    <row r="355" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>22</v>
       </c>
@@ -18970,8 +20863,13 @@
       <c r="L355" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M355" s="6"/>
+      <c r="N355" s="6"/>
+      <c r="O355" s="6"/>
+      <c r="P355" s="6"/>
+      <c r="Q355" s="6"/>
+    </row>
+    <row r="356" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>22</v>
       </c>
@@ -19004,8 +20902,13 @@
       <c r="L356" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M356" s="6"/>
+      <c r="N356" s="6"/>
+      <c r="O356" s="6"/>
+      <c r="P356" s="6"/>
+      <c r="Q356" s="6"/>
+    </row>
+    <row r="357" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>22</v>
       </c>
@@ -19038,8 +20941,13 @@
       <c r="L357" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M357" s="6"/>
+      <c r="N357" s="6"/>
+      <c r="O357" s="6"/>
+      <c r="P357" s="6"/>
+      <c r="Q357" s="6"/>
+    </row>
+    <row r="358" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>22</v>
       </c>
@@ -19072,8 +20980,13 @@
       <c r="L358" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M358" s="6"/>
+      <c r="N358" s="6"/>
+      <c r="O358" s="6"/>
+      <c r="P358" s="6"/>
+      <c r="Q358" s="6"/>
+    </row>
+    <row r="359" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>22</v>
       </c>
@@ -19106,8 +21019,13 @@
       <c r="L359" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M359" s="6"/>
+      <c r="N359" s="6"/>
+      <c r="O359" s="6"/>
+      <c r="P359" s="6"/>
+      <c r="Q359" s="6"/>
+    </row>
+    <row r="360" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>22</v>
       </c>
@@ -19140,8 +21058,13 @@
       <c r="L360" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M360" s="6"/>
+      <c r="N360" s="6"/>
+      <c r="O360" s="6"/>
+      <c r="P360" s="6"/>
+      <c r="Q360" s="6"/>
+    </row>
+    <row r="361" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>22</v>
       </c>
@@ -19174,8 +21097,13 @@
       <c r="L361" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M361" s="6"/>
+      <c r="N361" s="6"/>
+      <c r="O361" s="6"/>
+      <c r="P361" s="6"/>
+      <c r="Q361" s="6"/>
+    </row>
+    <row r="362" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>22</v>
       </c>
@@ -19208,8 +21136,13 @@
       <c r="L362" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M362" s="6"/>
+      <c r="N362" s="6"/>
+      <c r="O362" s="6"/>
+      <c r="P362" s="6"/>
+      <c r="Q362" s="6"/>
+    </row>
+    <row r="363" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>22</v>
       </c>
@@ -19242,8 +21175,13 @@
       <c r="L363" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M363" s="6"/>
+      <c r="N363" s="6"/>
+      <c r="O363" s="6"/>
+      <c r="P363" s="6"/>
+      <c r="Q363" s="6"/>
+    </row>
+    <row r="364" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>22</v>
       </c>
@@ -19276,8 +21214,13 @@
       <c r="L364" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M364" s="6"/>
+      <c r="N364" s="6"/>
+      <c r="O364" s="6"/>
+      <c r="P364" s="6"/>
+      <c r="Q364" s="6"/>
+    </row>
+    <row r="365" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>22</v>
       </c>
@@ -19310,8 +21253,13 @@
       <c r="L365" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M365" s="6"/>
+      <c r="N365" s="6"/>
+      <c r="O365" s="6"/>
+      <c r="P365" s="6"/>
+      <c r="Q365" s="6"/>
+    </row>
+    <row r="366" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="6" t="s">
         <v>22</v>
       </c>
@@ -19344,8 +21292,13 @@
       <c r="L366" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M366" s="6"/>
+      <c r="N366" s="6"/>
+      <c r="O366" s="6"/>
+      <c r="P366" s="6"/>
+      <c r="Q366" s="6"/>
+    </row>
+    <row r="367" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>22</v>
       </c>
@@ -19378,8 +21331,13 @@
       <c r="L367" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M367" s="6"/>
+      <c r="N367" s="6"/>
+      <c r="O367" s="6"/>
+      <c r="P367" s="6"/>
+      <c r="Q367" s="6"/>
+    </row>
+    <row r="368" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>22</v>
       </c>
@@ -19412,8 +21370,13 @@
       <c r="L368" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M368" s="6"/>
+      <c r="N368" s="6"/>
+      <c r="O368" s="6"/>
+      <c r="P368" s="6"/>
+      <c r="Q368" s="6"/>
+    </row>
+    <row r="369" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>22</v>
       </c>
@@ -19446,8 +21409,13 @@
       <c r="L369" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M369" s="6"/>
+      <c r="N369" s="6"/>
+      <c r="O369" s="6"/>
+      <c r="P369" s="6"/>
+      <c r="Q369" s="6"/>
+    </row>
+    <row r="370" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>22</v>
       </c>
@@ -19480,8 +21448,13 @@
       <c r="L370" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M370" s="6"/>
+      <c r="N370" s="6"/>
+      <c r="O370" s="6"/>
+      <c r="P370" s="6"/>
+      <c r="Q370" s="6"/>
+    </row>
+    <row r="371" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>22</v>
       </c>
@@ -19514,8 +21487,13 @@
       <c r="L371" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" s="10" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="M371" s="6"/>
+      <c r="N371" s="6"/>
+      <c r="O371" s="6"/>
+      <c r="P371" s="6"/>
+      <c r="Q371" s="6"/>
+    </row>
+    <row r="372" spans="1:17" s="10" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>22</v>
       </c>
@@ -19548,8 +21526,13 @@
       <c r="L372" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M372" s="6"/>
+      <c r="N372" s="6"/>
+      <c r="O372" s="6"/>
+      <c r="P372" s="6"/>
+      <c r="Q372" s="6"/>
+    </row>
+    <row r="373" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>22</v>
       </c>
@@ -19582,8 +21565,13 @@
       <c r="L373" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M373" s="6"/>
+      <c r="N373" s="6"/>
+      <c r="O373" s="6"/>
+      <c r="P373" s="6"/>
+      <c r="Q373" s="6"/>
+    </row>
+    <row r="374" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>22</v>
       </c>
@@ -19616,8 +21604,13 @@
       <c r="L374" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M374" s="6"/>
+      <c r="N374" s="6"/>
+      <c r="O374" s="6"/>
+      <c r="P374" s="6"/>
+      <c r="Q374" s="6"/>
+    </row>
+    <row r="375" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>22</v>
       </c>
@@ -19650,8 +21643,13 @@
       <c r="L375" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M375" s="6"/>
+      <c r="N375" s="6"/>
+      <c r="O375" s="6"/>
+      <c r="P375" s="6"/>
+      <c r="Q375" s="6"/>
+    </row>
+    <row r="376" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>22</v>
       </c>
@@ -19684,8 +21682,13 @@
       <c r="L376" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M376" s="6"/>
+      <c r="N376" s="6"/>
+      <c r="O376" s="6"/>
+      <c r="P376" s="6"/>
+      <c r="Q376" s="6"/>
+    </row>
+    <row r="377" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>22</v>
       </c>
@@ -19718,8 +21721,13 @@
       <c r="L377" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M377" s="6"/>
+      <c r="N377" s="6"/>
+      <c r="O377" s="6"/>
+      <c r="P377" s="6"/>
+      <c r="Q377" s="6"/>
+    </row>
+    <row r="378" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>22</v>
       </c>
@@ -19752,8 +21760,13 @@
       <c r="L378" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M378" s="6"/>
+      <c r="N378" s="6"/>
+      <c r="O378" s="6"/>
+      <c r="P378" s="6"/>
+      <c r="Q378" s="6"/>
+    </row>
+    <row r="379" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>22</v>
       </c>
@@ -19786,8 +21799,13 @@
       <c r="L379" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M379" s="6"/>
+      <c r="N379" s="6"/>
+      <c r="O379" s="6"/>
+      <c r="P379" s="6"/>
+      <c r="Q379" s="6"/>
+    </row>
+    <row r="380" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>22</v>
       </c>
@@ -19822,8 +21840,13 @@
       <c r="L380" s="6" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M380" s="6"/>
+      <c r="N380" s="6"/>
+      <c r="O380" s="6"/>
+      <c r="P380" s="6"/>
+      <c r="Q380" s="6"/>
+    </row>
+    <row r="381" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>22</v>
       </c>
@@ -19858,8 +21881,13 @@
       <c r="L381" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M381" s="6"/>
+      <c r="N381" s="6"/>
+      <c r="O381" s="6"/>
+      <c r="P381" s="6"/>
+      <c r="Q381" s="6"/>
+    </row>
+    <row r="382" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>22</v>
       </c>
@@ -19894,8 +21922,13 @@
       <c r="L382" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M382" s="6"/>
+      <c r="N382" s="6"/>
+      <c r="O382" s="6"/>
+      <c r="P382" s="6"/>
+      <c r="Q382" s="6"/>
+    </row>
+    <row r="383" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>22</v>
       </c>
@@ -19930,8 +21963,13 @@
       <c r="L383" s="6" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="M383" s="6"/>
+      <c r="N383" s="6"/>
+      <c r="O383" s="6"/>
+      <c r="P383" s="6"/>
+      <c r="Q383" s="6"/>
+    </row>
+    <row r="384" spans="1:17" s="10" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>22</v>
       </c>
@@ -19966,8 +22004,13 @@
       <c r="L384" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M384" s="6"/>
+      <c r="N384" s="6"/>
+      <c r="O384" s="6"/>
+      <c r="P384" s="6"/>
+      <c r="Q384" s="6"/>
+    </row>
+    <row r="385" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>22</v>
       </c>
@@ -20002,8 +22045,13 @@
       <c r="L385" s="6" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="M385" s="6"/>
+      <c r="N385" s="6"/>
+      <c r="O385" s="6"/>
+      <c r="P385" s="6"/>
+      <c r="Q385" s="6"/>
+    </row>
+    <row r="386" spans="1:17" s="10" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>22</v>
       </c>
@@ -20038,8 +22086,13 @@
       <c r="L386" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M386" s="6"/>
+      <c r="N386" s="6"/>
+      <c r="O386" s="6"/>
+      <c r="P386" s="6"/>
+      <c r="Q386" s="6"/>
+    </row>
+    <row r="387" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>22</v>
       </c>
@@ -20074,8 +22127,13 @@
       <c r="L387" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M387" s="6"/>
+      <c r="N387" s="6"/>
+      <c r="O387" s="6"/>
+      <c r="P387" s="6"/>
+      <c r="Q387" s="6"/>
+    </row>
+    <row r="388" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>22</v>
       </c>
@@ -20110,8 +22168,13 @@
       <c r="L388" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M388" s="6"/>
+      <c r="N388" s="6"/>
+      <c r="O388" s="6"/>
+      <c r="P388" s="6"/>
+      <c r="Q388" s="6"/>
+    </row>
+    <row r="389" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>22</v>
       </c>
@@ -20148,8 +22211,13 @@
       <c r="L389" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M389" s="6"/>
+      <c r="N389" s="6"/>
+      <c r="O389" s="6"/>
+      <c r="P389" s="6"/>
+      <c r="Q389" s="6"/>
+    </row>
+    <row r="390" spans="1:17" s="10" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>22</v>
       </c>
@@ -20184,8 +22252,13 @@
       <c r="L390" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M390" s="6"/>
+      <c r="N390" s="6"/>
+      <c r="O390" s="6"/>
+      <c r="P390" s="6"/>
+      <c r="Q390" s="6"/>
+    </row>
+    <row r="391" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>22</v>
       </c>
@@ -20220,8 +22293,13 @@
       <c r="L391" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M391" s="6"/>
+      <c r="N391" s="6"/>
+      <c r="O391" s="6"/>
+      <c r="P391" s="6"/>
+      <c r="Q391" s="6"/>
+    </row>
+    <row r="392" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>22</v>
       </c>
@@ -20256,8 +22334,13 @@
       <c r="L392" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M392" s="6"/>
+      <c r="N392" s="6"/>
+      <c r="O392" s="6"/>
+      <c r="P392" s="6"/>
+      <c r="Q392" s="6"/>
+    </row>
+    <row r="393" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>22</v>
       </c>
@@ -20292,8 +22375,13 @@
       <c r="L393" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="M393" s="6"/>
+      <c r="N393" s="6"/>
+      <c r="O393" s="6"/>
+      <c r="P393" s="6"/>
+      <c r="Q393" s="6"/>
+    </row>
+    <row r="394" spans="1:17" s="10" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>22</v>
       </c>
@@ -20328,8 +22416,13 @@
       <c r="L394" s="6" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M394" s="6"/>
+      <c r="N394" s="6"/>
+      <c r="O394" s="6"/>
+      <c r="P394" s="6"/>
+      <c r="Q394" s="6"/>
+    </row>
+    <row r="395" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>22</v>
       </c>
@@ -20366,8 +22459,13 @@
       <c r="L395" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M395" s="6"/>
+      <c r="N395" s="6"/>
+      <c r="O395" s="6"/>
+      <c r="P395" s="6"/>
+      <c r="Q395" s="6"/>
+    </row>
+    <row r="396" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>22</v>
       </c>
@@ -20402,8 +22500,13 @@
       <c r="L396" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M396" s="6"/>
+      <c r="N396" s="6"/>
+      <c r="O396" s="6"/>
+      <c r="P396" s="6"/>
+      <c r="Q396" s="6"/>
+    </row>
+    <row r="397" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>22</v>
       </c>
@@ -20440,8 +22543,13 @@
       <c r="L397" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M397" s="6"/>
+      <c r="N397" s="6"/>
+      <c r="O397" s="6"/>
+      <c r="P397" s="6"/>
+      <c r="Q397" s="6"/>
+    </row>
+    <row r="398" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>22</v>
       </c>
@@ -20476,8 +22584,13 @@
       <c r="L398" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M398" s="6"/>
+      <c r="N398" s="6"/>
+      <c r="O398" s="6"/>
+      <c r="P398" s="6"/>
+      <c r="Q398" s="6"/>
+    </row>
+    <row r="399" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>22</v>
       </c>
@@ -20512,8 +22625,13 @@
       <c r="L399" s="6" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M399" s="6"/>
+      <c r="N399" s="6"/>
+      <c r="O399" s="6"/>
+      <c r="P399" s="6"/>
+      <c r="Q399" s="6"/>
+    </row>
+    <row r="400" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6" t="s">
         <v>22</v>
       </c>
@@ -20548,8 +22666,13 @@
       <c r="L400" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M400" s="6"/>
+      <c r="N400" s="6"/>
+      <c r="O400" s="6"/>
+      <c r="P400" s="6"/>
+      <c r="Q400" s="6"/>
+    </row>
+    <row r="401" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>22</v>
       </c>
@@ -20584,8 +22707,13 @@
       <c r="L401" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M401" s="6"/>
+      <c r="N401" s="6"/>
+      <c r="O401" s="6"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="6"/>
+    </row>
+    <row r="402" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="6" t="s">
         <v>22</v>
       </c>
@@ -20622,8 +22750,13 @@
       <c r="L402" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M402" s="6"/>
+      <c r="N402" s="6"/>
+      <c r="O402" s="6"/>
+      <c r="P402" s="6"/>
+      <c r="Q402" s="6"/>
+    </row>
+    <row r="403" spans="1:17" s="10" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>22</v>
       </c>
@@ -20660,8 +22793,13 @@
       <c r="L403" s="6" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M403" s="6"/>
+      <c r="N403" s="6"/>
+      <c r="O403" s="6"/>
+      <c r="P403" s="6"/>
+      <c r="Q403" s="6"/>
+    </row>
+    <row r="404" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="6" t="s">
         <v>22</v>
       </c>
@@ -20696,8 +22834,13 @@
       <c r="L404" s="20" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M404" s="6"/>
+      <c r="N404" s="6"/>
+      <c r="O404" s="6"/>
+      <c r="P404" s="6"/>
+      <c r="Q404" s="6"/>
+    </row>
+    <row r="405" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>22</v>
       </c>
@@ -20732,8 +22875,13 @@
       <c r="L405" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="M405" s="6"/>
+      <c r="N405" s="6"/>
+      <c r="O405" s="6"/>
+      <c r="P405" s="6"/>
+      <c r="Q405" s="6"/>
+    </row>
+    <row r="406" spans="1:17" s="10" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="6" t="s">
         <v>22</v>
       </c>
@@ -20768,8 +22916,13 @@
       <c r="L406" s="20" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M406" s="6"/>
+      <c r="N406" s="6"/>
+      <c r="O406" s="6"/>
+      <c r="P406" s="6"/>
+      <c r="Q406" s="6"/>
+    </row>
+    <row r="407" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>22</v>
       </c>
@@ -20804,8 +22957,13 @@
       <c r="L407" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M407" s="6"/>
+      <c r="N407" s="6"/>
+      <c r="O407" s="6"/>
+      <c r="P407" s="6"/>
+      <c r="Q407" s="6"/>
+    </row>
+    <row r="408" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6" t="s">
         <v>22</v>
       </c>
@@ -20840,8 +22998,13 @@
       <c r="L408" s="6" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M408" s="6"/>
+      <c r="N408" s="6"/>
+      <c r="O408" s="6"/>
+      <c r="P408" s="6"/>
+      <c r="Q408" s="6"/>
+    </row>
+    <row r="409" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>22</v>
       </c>
@@ -20876,8 +23039,13 @@
       <c r="L409" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="M409" s="6"/>
+      <c r="N409" s="6"/>
+      <c r="O409" s="6"/>
+      <c r="P409" s="6"/>
+      <c r="Q409" s="6"/>
+    </row>
+    <row r="410" spans="1:17" s="10" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="6" t="s">
         <v>22</v>
       </c>
@@ -20914,8 +23082,13 @@
       <c r="L410" s="6" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M410" s="6"/>
+      <c r="N410" s="6"/>
+      <c r="O410" s="6"/>
+      <c r="P410" s="6"/>
+      <c r="Q410" s="6"/>
+    </row>
+    <row r="411" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>22</v>
       </c>
@@ -20952,8 +23125,13 @@
       <c r="L411" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M411" s="6"/>
+      <c r="N411" s="6"/>
+      <c r="O411" s="6"/>
+      <c r="P411" s="6"/>
+      <c r="Q411" s="6"/>
+    </row>
+    <row r="412" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="6" t="s">
         <v>22</v>
       </c>
@@ -20988,8 +23166,13 @@
       <c r="L412" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M412" s="6"/>
+      <c r="N412" s="6"/>
+      <c r="O412" s="6"/>
+      <c r="P412" s="6"/>
+      <c r="Q412" s="6"/>
+    </row>
+    <row r="413" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>22</v>
       </c>
@@ -21026,8 +23209,13 @@
       <c r="L413" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M413" s="6"/>
+      <c r="N413" s="6"/>
+      <c r="O413" s="6"/>
+      <c r="P413" s="6"/>
+      <c r="Q413" s="6"/>
+    </row>
+    <row r="414" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>22</v>
       </c>
@@ -21064,8 +23252,13 @@
       <c r="L414" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M414" s="6"/>
+      <c r="N414" s="6"/>
+      <c r="O414" s="6"/>
+      <c r="P414" s="6"/>
+      <c r="Q414" s="6"/>
+    </row>
+    <row r="415" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>22</v>
       </c>
@@ -21102,8 +23295,13 @@
       <c r="L415" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M415" s="6"/>
+      <c r="N415" s="6"/>
+      <c r="O415" s="6"/>
+      <c r="P415" s="6"/>
+      <c r="Q415" s="6"/>
+    </row>
+    <row r="416" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="6" t="s">
         <v>22</v>
       </c>
@@ -21140,8 +23338,13 @@
       <c r="L416" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M416" s="6"/>
+      <c r="N416" s="6"/>
+      <c r="O416" s="6"/>
+      <c r="P416" s="6"/>
+      <c r="Q416" s="6"/>
+    </row>
+    <row r="417" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>22</v>
       </c>
@@ -21178,8 +23381,13 @@
       <c r="L417" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M417" s="6"/>
+      <c r="N417" s="6"/>
+      <c r="O417" s="6"/>
+      <c r="P417" s="6"/>
+      <c r="Q417" s="6"/>
+    </row>
+    <row r="418" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>22</v>
       </c>
@@ -21212,8 +23420,13 @@
       <c r="L418" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M418" s="6"/>
+      <c r="N418" s="6"/>
+      <c r="O418" s="6"/>
+      <c r="P418" s="6"/>
+      <c r="Q418" s="6"/>
+    </row>
+    <row r="419" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>22</v>
       </c>
@@ -21246,8 +23459,13 @@
       <c r="L419" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M419" s="6"/>
+      <c r="N419" s="6"/>
+      <c r="O419" s="6"/>
+      <c r="P419" s="6"/>
+      <c r="Q419" s="6"/>
+    </row>
+    <row r="420" spans="1:17" s="10" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="6" t="s">
         <v>22</v>
       </c>
@@ -21280,8 +23498,13 @@
       <c r="L420" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="M420" s="6"/>
+      <c r="N420" s="6"/>
+      <c r="O420" s="6"/>
+      <c r="P420" s="6"/>
+      <c r="Q420" s="6"/>
+    </row>
+    <row r="421" spans="1:17" s="10" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="6" t="s">
         <v>22</v>
       </c>
@@ -21314,9 +23537,20 @@
       <c r="L421" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="M421" s="6"/>
+      <c r="N421" s="6"/>
+      <c r="O421" s="6"/>
+      <c r="P421" s="6"/>
+      <c r="Q421" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L421" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Q421" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GREENSCALE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L235">
     <sortCondition ref="C2:C430"/>
   </sortState>
